--- a/trunk/SDD/Plan de Pruebas/SDD[Alimnova]ReportePruebasv0.1.0.xlsx
+++ b/trunk/SDD/Plan de Pruebas/SDD[Alimnova]ReportePruebasv0.1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -190,13 +190,22 @@
   </si>
   <si>
     <t>estado propiedad: VENTA</t>
+  </si>
+  <si>
+    <t>Id de la casilla asociada a la propiedad a subastar. Casilla 9 correspondiente a la propiedad Balzac</t>
+  </si>
+  <si>
+    <t>Precio base 36. 30% del precio de venta original (120) de la propiedad asociada a la casilla 2 (Balsac).</t>
+  </si>
+  <si>
+    <t>10 minutos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +217,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,15 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,6 +290,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +603,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -585,67 +617,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -665,7 +697,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -685,7 +717,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -705,59 +737,71 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="76.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="90">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
-        <v>0</v>
+      <c r="D8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -777,7 +821,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -797,39 +841,39 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="60.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -849,39 +893,39 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -901,7 +945,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -921,7 +965,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -941,7 +985,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -961,7 +1005,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -981,7 +1025,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1001,7 +1045,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1021,7 +1065,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1041,7 +1085,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1061,7 +1105,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1082,18 +1126,36 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J23">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="50"/>
+        <cfvo type="num" val="100"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J23">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -1102,7 +1164,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J23">
+  <conditionalFormatting sqref="J8">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -1111,7 +1173,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J23">
+  <conditionalFormatting sqref="J8">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
